--- a/medicine/Enfance/Michael_Grant_(écrivain)/Michael_Grant_(écrivain).xlsx
+++ b/medicine/Enfance/Michael_Grant_(écrivain)/Michael_Grant_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_Grant_(%C3%A9crivain)</t>
+          <t>Michael_Grant_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Grant, né le 26 juillet 1954 à Los Angeles en Californie, est un écrivain américain de science-fiction, auteur notamment de la série Gone ou encore Animorphs qu'il a co-écrit avec sa femme, la romancière K. A. Applegate.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_Grant_(%C3%A9crivain)</t>
+          <t>Michael_Grant_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Grant est né en Californie. Il passe la plupart de son enfance aux États-Unis, trois ans en France et presque une année en Italie et aux Açores. Sa femme, Katherine Alice Applegate et lui ont écrit environ 150 livres.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael_Grant_(%C3%A9crivain)</t>
+          <t>Michael_Grant_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,32 +558,214 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série BZRK
-BZRK, Gallimard Jeunesse, 2012 ((en) BZRK, Electric Monkey, 2012)
+          <t>Série BZRK</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BZRK, Gallimard Jeunesse, 2012 ((en) BZRK, Electric Monkey, 2012)
 BZRK Révolution, Gallimard Jeunesse, 2013 ((en) BZRK: Reloaded, Electric Monkey, 2013)
-BZRK Apocalypse, Gallimard Jeunesse, 2014 ((en) BZRK Apocalypse, Electric Monkey, 2014)
-Univers Gone
-Série Gone
-Gone, Pocket Jeunesse, 2009 ((en) Gone, HarperTeen, 2008)
+BZRK Apocalypse, Gallimard Jeunesse, 2014 ((en) BZRK Apocalypse, Electric Monkey, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael_Grant_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Grant_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Gone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Gone</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gone, Pocket Jeunesse, 2009 ((en) Gone, HarperTeen, 2008)
 La Faim, Pocket Jeunesse, 2010 ((en) Hunger, Katherine Tegen Books, 2009)
 Mensonges, Pocket Jeunesse, 2010 ((en) Lies, Katherine Tegen Books, 2010)
 L'Épidémie, Pocket Jeunesse, 2011 ((en) Plague, Katherine Tegen Books, 2011)
 La Peur, Pocket Jeunesse, 2012 ((en) Fear, Katherine Tegen Books, 2012)
-La Lumière, Pocket Jeunesse, 2013 ((en) Light, Katherine Tegen Books, 2013)
-Série Monster
-Monster, Pocket Jeunesse, 2018 ((en) Monster, Katherine Tegen Books, 2017)
+La Lumière, Pocket Jeunesse, 2013 ((en) Light, Katherine Tegen Books, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_Grant_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Grant_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Gone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Monster</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Monster, Pocket Jeunesse, 2018 ((en) Monster, Katherine Tegen Books, 2017)
 Monster - Livre 2, Pocket Jeunesse, 2019 ((en) Villain, Katherine Tegen Books, 2018)
-(en) Hero, Katherine Tegen Books, 2019
-Série The Magnificent 12
-(en) The Call, 2010
+(en) Hero, Katherine Tegen Books, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael_Grant_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Grant_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série The Magnificent 12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Call, 2010
 (en) The Trap, 2011
 (en) The Key, 2012
-(en) The Power, 2013
-Série Messenger of Fear
-(en) Messenger of Fear, 2014
-(en) The Tattooed Heart, 2015
-Romans indépendants
-(en) Eve &amp; Adam, 2012Coécrit avec Katherine Alice Applegate.</t>
+(en) The Power, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michael_Grant_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Grant_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Messenger of Fear</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Messenger of Fear, 2014
+(en) The Tattooed Heart, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael_Grant_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Grant_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Eve &amp; Adam, 2012Coécrit avec Katherine Alice Applegate.</t>
         </is>
       </c>
     </row>
